--- a/code_lists/Code lists/outcomes_hesae_diag2_codelists.xlsx
+++ b/code_lists/Code lists/outcomes_hesae_diag2_codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bo18534_bristol_ac_uk/Documents/Main Project/CPRD/dst_cprd/code_lists/Code lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BAA1B5A4-4140-4954-AD12-3AA582D3257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20609E0B-F368-475F-AC71-720D7FD8A55C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{BAA1B5A4-4140-4954-AD12-3AA582D3257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9591396-F69C-422A-B4C7-BF3B3F987111}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F426E29C-16C2-4ACA-8DE2-3B0F5333BC66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F426E29C-16C2-4ACA-8DE2-3B0F5333BC66}"/>
   </bookViews>
   <sheets>
     <sheet name="CVD" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>diag2</t>
   </si>
+  <si>
+    <t>Codelist created by M de L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,11 +87,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -101,9 +111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,31 +407,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03282841-9C0E-499B-BC83-1B40DFC4FF10}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>22</v>
       </c>
     </row>
@@ -432,22 +448,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCF7D40-EECD-40AE-B190-85142D5EEF20}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
